--- a/results/comparison_PlainLLM/PlainLLM_evaluated.xlsx
+++ b/results/comparison_PlainLLM/PlainLLM_evaluated.xlsx
@@ -505,22 +505,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.1405750751441784</v>
+        <v>0.09259259068972912</v>
       </c>
       <c r="D2" t="n">
-        <v>7.282821385592946e-79</v>
+        <v>4.546426116650612e-157</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6013086438179016</v>
+        <v>0.5116935968399048</v>
       </c>
       <c r="F2" t="n">
-        <v>16.96644872283647</v>
+        <v>57.45700000000002</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7521286660359509</v>
+        <v>0.1873226111636708</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -545,19 +545,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.09411764498269902</v>
+        <v>0.0999999972222223</v>
       </c>
       <c r="D3" t="n">
-        <v>8.28331847267443e-232</v>
+        <v>9.296304027068154e-232</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4344497621059418</v>
+        <v>0.4810962677001953</v>
       </c>
       <c r="F3" t="n">
-        <v>-7.615322245322233</v>
+        <v>68.07896103896107</v>
       </c>
       <c r="G3" t="n">
-        <v>4.834862385321101</v>
+        <v>2.944954128440367</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -585,22 +585,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.1868131843642073</v>
+        <v>0.172727268601653</v>
       </c>
       <c r="D4" t="n">
-        <v>3.669235733601033e-06</v>
+        <v>0.001597777327467187</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5827257633209229</v>
+        <v>0.5802648663520813</v>
       </c>
       <c r="F4" t="n">
-        <v>58.65916666666669</v>
+        <v>52.01833333333335</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2286324786324786</v>
+        <v>0.3995726495726496</v>
       </c>
       <c r="H4" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.1239669402960863</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>4.677929573232771e-07</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6272472739219666</v>
+        <v>0.2943727076053619</v>
       </c>
       <c r="F5" t="n">
-        <v>71.95418181818184</v>
+        <v>121.22</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1653027823240589</v>
+        <v>0.04173486088379705</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -665,19 +665,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.1904761873273425</v>
+        <v>0.06060605915445366</v>
       </c>
       <c r="D6" t="n">
-        <v>1.781194574382433e-156</v>
+        <v>1.532883390725305e-238</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5956300497055054</v>
+        <v>0.5357184410095215</v>
       </c>
       <c r="F6" t="n">
-        <v>57.13500000000002</v>
+        <v>15.40352941176474</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3229885057471265</v>
+        <v>0.1689655172413793</v>
       </c>
       <c r="H6" t="n">
         <v>0.6666666666666666</v>
@@ -705,28 +705,28 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.2686567133931229</v>
+        <v>0.06792452693848347</v>
       </c>
       <c r="D7" t="n">
-        <v>0.03395778805793837</v>
+        <v>1.993138604279636e-85</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6274435520172119</v>
+        <v>0.6010646820068359</v>
       </c>
       <c r="F7" t="n">
-        <v>30.79075201546715</v>
+        <v>11.77297560975609</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2790224032586558</v>
+        <v>0.1093977305789933</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0.5</v>
@@ -745,22 +745,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.3044776075926042</v>
+        <v>0.05970148999777244</v>
       </c>
       <c r="D8" t="n">
-        <v>0.03578388804512875</v>
+        <v>2.502371731976903e-159</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6621438264846802</v>
+        <v>0.5773721933364868</v>
       </c>
       <c r="F8" t="n">
-        <v>56.48359176029962</v>
+        <v>-1.064416666666659</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4416666666666667</v>
+        <v>0.2513888888888889</v>
       </c>
       <c r="H8" t="n">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
@@ -785,22 +785,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.05211726229328697</v>
+        <v>0.2391304311721704</v>
       </c>
       <c r="D9" t="n">
-        <v>1.465123143195578e-163</v>
+        <v>0.01394673324029692</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6150133013725281</v>
+        <v>0.5951409935951233</v>
       </c>
       <c r="F9" t="n">
-        <v>25.02894736842109</v>
+        <v>61.21135768891506</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1599073001158749</v>
+        <v>0.320973348783314</v>
       </c>
       <c r="H9" t="n">
-        <v>0.625</v>
+        <v>0.1875</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.2114803585239274</v>
+        <v>0.1114982550542073</v>
       </c>
       <c r="D10" t="n">
-        <v>1.12835063269194e-79</v>
+        <v>2.873681000856044e-81</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6324154734611511</v>
+        <v>0.568351686000824</v>
       </c>
       <c r="F10" t="n">
-        <v>51.36888837424735</v>
+        <v>30.50706451612905</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3525132275132275</v>
+        <v>0.201058201058201</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3125</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
@@ -865,22 +865,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.08832807420394274</v>
+        <v>0.08227847955556003</v>
       </c>
       <c r="D11" t="n">
-        <v>5.33188011418911e-166</v>
+        <v>2.283726209572178e-164</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6118263602256775</v>
+        <v>0.5889261960983276</v>
       </c>
       <c r="F11" t="n">
-        <v>54.07850574712646</v>
+        <v>47.22500000000002</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1071623838162931</v>
+        <v>0.1115363586659377</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
@@ -905,19 +905,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.1560693611104615</v>
+        <v>0.2806122408383226</v>
       </c>
       <c r="D12" t="n">
-        <v>4.137533010895687e-81</v>
+        <v>0.01897245699668708</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5994855165481567</v>
+        <v>0.6717567443847656</v>
       </c>
       <c r="F12" t="n">
-        <v>34.58646551724141</v>
+        <v>56.28495938961359</v>
       </c>
       <c r="G12" t="n">
-        <v>0.239749430523918</v>
+        <v>0.3895216400911162</v>
       </c>
       <c r="H12" t="n">
         <v>0.2222222222222222</v>
@@ -945,22 +945,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.1114551068270567</v>
+        <v>0.03934426172233271</v>
       </c>
       <c r="D13" t="n">
-        <v>2.726702080991756e-163</v>
+        <v>6.752211318613606e-188</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6252661347389221</v>
+        <v>0.4429644048213959</v>
       </c>
       <c r="F13" t="n">
-        <v>57.21619047619049</v>
+        <v>23.66750000000002</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1114190687361419</v>
+        <v>0.06152993348115299</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>1</v>
@@ -985,28 +985,28 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.1968085071101177</v>
+        <v>0.2550091024840662</v>
       </c>
       <c r="D14" t="n">
-        <v>0.01745976079678401</v>
+        <v>0.09939770773209433</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6320520639419556</v>
+        <v>0.6503423452377319</v>
       </c>
       <c r="F14" t="n">
-        <v>51.60833333333335</v>
+        <v>23.25374399052694</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2938888888888889</v>
+        <v>0.875</v>
       </c>
       <c r="H14" t="n">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="I14" t="n">
         <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" t="n">
         <v>0.5</v>
@@ -1025,19 +1025,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.1503759361184918</v>
+        <v>0.1805555513117285</v>
       </c>
       <c r="D15" t="n">
-        <v>3.144513736550294e-232</v>
+        <v>0.02396754069852558</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5806753039360046</v>
+        <v>0.6900214552879333</v>
       </c>
       <c r="F15" t="n">
-        <v>57.2277173913044</v>
+        <v>40.51772727272729</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4688128772635815</v>
+        <v>0.6458752515090543</v>
       </c>
       <c r="H15" t="n">
         <v>0.5</v>
@@ -1065,22 +1065,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.3300970826972383</v>
+        <v>0.2096069819797488</v>
       </c>
       <c r="D16" t="n">
-        <v>0.05212018387792116</v>
+        <v>0.03114190236867891</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6476262807846069</v>
+        <v>0.6515567302703857</v>
       </c>
       <c r="F16" t="n">
-        <v>67.17790909090911</v>
+        <v>66.17128378378382</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6433666191155493</v>
+        <v>0.9329529243937232</v>
       </c>
       <c r="H16" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I16" t="n">
         <v>1</v>
@@ -1105,19 +1105,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.102564100234221</v>
+        <v>0.3318385602445254</v>
       </c>
       <c r="D17" t="n">
-        <v>3.825677568641587e-233</v>
+        <v>0.08330586850137896</v>
       </c>
       <c r="E17" t="n">
-        <v>0.611166775226593</v>
+        <v>0.7023013830184937</v>
       </c>
       <c r="F17" t="n">
-        <v>35.94633333333334</v>
+        <v>31.77141772151899</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2755376344086021</v>
+        <v>0.7190860215053764</v>
       </c>
       <c r="H17" t="n">
         <v>0.2857142857142857</v>
@@ -1145,25 +1145,25 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.1428571408395448</v>
+        <v>0.3118908347068234</v>
       </c>
       <c r="D18" t="n">
-        <v>6.572375977794704e-05</v>
+        <v>0.01434816053683265</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5688568949699402</v>
+        <v>0.6553105711936951</v>
       </c>
       <c r="F18" t="n">
-        <v>50.83513133208257</v>
+        <v>64.7571428571429</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1413551401869159</v>
+        <v>0.2585669781931464</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>1</v>
@@ -1185,22 +1185,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.2540540495799855</v>
+        <v>0.2186495143412496</v>
       </c>
       <c r="D19" t="n">
-        <v>3.934974666369771e-79</v>
+        <v>0.0007251643632764247</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6517971754074097</v>
+        <v>0.6475748419761658</v>
       </c>
       <c r="F19" t="n">
-        <v>20.3181405782652</v>
+        <v>54.42926923076925</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5451549110085695</v>
+        <v>0.2821357943309163</v>
       </c>
       <c r="H19" t="n">
-        <v>0.8823529411764706</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="I19" t="n">
         <v>1</v>
@@ -1225,22 +1225,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.2005141341413288</v>
+        <v>0.1313868593638447</v>
       </c>
       <c r="D20" t="n">
-        <v>4.670128177083736e-79</v>
+        <v>1.680824497227731e-83</v>
       </c>
       <c r="E20" t="n">
-        <v>0.6566116213798523</v>
+        <v>0.6584175825119019</v>
       </c>
       <c r="F20" t="n">
-        <v>42.42596153846156</v>
+        <v>42.60000000000002</v>
       </c>
       <c r="G20" t="n">
-        <v>0.6671398154719659</v>
+        <v>0.1611071682044003</v>
       </c>
       <c r="H20" t="n">
-        <v>0.875</v>
+        <v>0.25</v>
       </c>
       <c r="I20" t="n">
         <v>1</v>
@@ -1265,19 +1265,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.163380277718548</v>
+        <v>0.1949685503975318</v>
       </c>
       <c r="D21" t="n">
-        <v>3.191777551891016e-156</v>
+        <v>2.094769759250724e-81</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5656746029853821</v>
+        <v>0.5723280310630798</v>
       </c>
       <c r="F21" t="n">
-        <v>50.89894706559264</v>
+        <v>84.55231707317076</v>
       </c>
       <c r="G21" t="n">
-        <v>0.318413597733711</v>
+        <v>0.1886685552407932</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0.5</v>
@@ -1305,28 +1305,28 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.3064935020205768</v>
+        <v>0.2666666617555556</v>
       </c>
       <c r="D22" t="n">
-        <v>0.03883998367509765</v>
+        <v>0.07085013631140286</v>
       </c>
       <c r="E22" t="n">
-        <v>0.620660126209259</v>
+        <v>0.6271148920059204</v>
       </c>
       <c r="F22" t="n">
-        <v>44.31185378457801</v>
+        <v>34.72996829710146</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5024242424242424</v>
+        <v>0.8563636363636363</v>
       </c>
       <c r="H22" t="n">
-        <v>0.375</v>
+        <v>0.75</v>
       </c>
       <c r="I22" t="n">
         <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" t="n">
         <v>0.5</v>
@@ -1345,19 +1345,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.3459915570716053</v>
+        <v>0.3224400832430072</v>
       </c>
       <c r="D23" t="n">
-        <v>0.02119472770405133</v>
+        <v>0.01921321876750445</v>
       </c>
       <c r="E23" t="n">
-        <v>0.628065824508667</v>
+        <v>0.6296382546424866</v>
       </c>
       <c r="F23" t="n">
-        <v>61.9993611058332</v>
+        <v>36.69569919303461</v>
       </c>
       <c r="G23" t="n">
-        <v>0.3863114377583831</v>
+        <v>0.3633440514469453</v>
       </c>
       <c r="H23" t="n">
         <v>0.1428571428571428</v>
@@ -1385,22 +1385,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.2560975563355146</v>
+        <v>0.3021582696133741</v>
       </c>
       <c r="D24" t="n">
-        <v>0.01017479392114867</v>
+        <v>5.900101118047322e-80</v>
       </c>
       <c r="E24" t="n">
-        <v>0.6359077095985413</v>
+        <v>0.5669437646865845</v>
       </c>
       <c r="F24" t="n">
-        <v>33.55372972972975</v>
+        <v>83.14754954954955</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6036866359447005</v>
+        <v>0.3287250384024578</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>1</v>
@@ -1425,19 +1425,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.2584269616557254</v>
+        <v>0.342857138281796</v>
       </c>
       <c r="D25" t="n">
-        <v>1.598980082667866e-155</v>
+        <v>9.639528560681787e-79</v>
       </c>
       <c r="E25" t="n">
-        <v>0.5886894464492798</v>
+        <v>0.7106010913848877</v>
       </c>
       <c r="F25" t="n">
-        <v>56.06980519480521</v>
+        <v>44.73730769230772</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5641025641025641</v>
+        <v>0.5987933634992458</v>
       </c>
       <c r="H25" t="n">
         <v>1</v>
@@ -1465,19 +1465,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.3086419704580095</v>
+        <v>0.2395209531786727</v>
       </c>
       <c r="D26" t="n">
-        <v>5.773486678810725e-79</v>
+        <v>7.258055581565617e-79</v>
       </c>
       <c r="E26" t="n">
-        <v>0.6343206763267517</v>
+        <v>0.5935736894607544</v>
       </c>
       <c r="F26" t="n">
-        <v>42.37454660748259</v>
+        <v>50.99991747572818</v>
       </c>
       <c r="G26" t="n">
-        <v>0.6845753899480069</v>
+        <v>0.7365684575389948</v>
       </c>
       <c r="H26" t="n">
         <v>1</v>
@@ -1505,19 +1505,19 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.2926829221149317</v>
+        <v>0.1999999958450618</v>
       </c>
       <c r="D27" t="n">
-        <v>6.781138405562678e-79</v>
+        <v>3.418368065727933e-156</v>
       </c>
       <c r="E27" t="n">
-        <v>0.6590073704719543</v>
+        <v>0.6735898852348328</v>
       </c>
       <c r="F27" t="n">
-        <v>68.18833333333333</v>
+        <v>74.61151238591918</v>
       </c>
       <c r="G27" t="n">
-        <v>0.5937072503419972</v>
+        <v>0.4322845417236662</v>
       </c>
       <c r="H27" t="n">
         <v>1</v>
@@ -1545,22 +1545,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.2787878744712581</v>
+        <v>0.2162162126050037</v>
       </c>
       <c r="D28" t="n">
-        <v>4.971110847553448e-79</v>
+        <v>9.958266212736697e-157</v>
       </c>
       <c r="E28" t="n">
-        <v>0.6460224986076355</v>
+        <v>0.626399040222168</v>
       </c>
       <c r="F28" t="n">
-        <v>62.47400684931512</v>
+        <v>43.13500000000002</v>
       </c>
       <c r="G28" t="n">
-        <v>0.4575757575757576</v>
+        <v>0.3772727272727273</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>1</v>
@@ -1585,19 +1585,19 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.1818181769329662</v>
+        <v>0.2249999951757813</v>
       </c>
       <c r="D29" t="n">
-        <v>4.347758112977159e-79</v>
+        <v>4.366198147035618e-79</v>
       </c>
       <c r="E29" t="n">
-        <v>0.5995789766311646</v>
+        <v>0.6737602353096008</v>
       </c>
       <c r="F29" t="n">
-        <v>48.5101373283396</v>
+        <v>34.21224880382775</v>
       </c>
       <c r="G29" t="n">
-        <v>0.703125</v>
+        <v>0.7256944444444444</v>
       </c>
       <c r="H29" t="n">
         <v>1</v>
@@ -1625,28 +1625,28 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.1038961018316748</v>
+        <v>0.1290322555827264</v>
       </c>
       <c r="D30" t="n">
-        <v>2.125552792139126e-155</v>
+        <v>2.62672060505751e-155</v>
       </c>
       <c r="E30" t="n">
-        <v>0.4961098432540894</v>
+        <v>0.4916394650936127</v>
       </c>
       <c r="F30" t="n">
-        <v>57.22132875143188</v>
+        <v>70.78714383561643</v>
       </c>
       <c r="G30" t="n">
-        <v>4.07</v>
+        <v>3.54</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30" t="n">
         <v>0.5</v>
@@ -1665,28 +1665,28 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.0869565169754256</v>
+        <v>0.09836065322225215</v>
       </c>
       <c r="D31" t="n">
-        <v>8.726094729337945e-232</v>
+        <v>8.174867218666773e-232</v>
       </c>
       <c r="E31" t="n">
-        <v>0.6143907308578491</v>
+        <v>0.4382379353046417</v>
       </c>
       <c r="F31" t="n">
-        <v>56.76568627450982</v>
+        <v>58.5046318493151</v>
       </c>
       <c r="G31" t="n">
-        <v>1.427184466019418</v>
+        <v>3.194174757281553</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I31" t="n">
         <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0.5</v>
@@ -1705,28 +1705,28 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.08849557375518836</v>
+        <v>0.04444444124444467</v>
       </c>
       <c r="D32" t="n">
-        <v>1.524416232185534e-155</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0.4062451720237732</v>
+        <v>0.5487852692604065</v>
       </c>
       <c r="F32" t="n">
-        <v>56.07980569948188</v>
+        <v>26.26339285714289</v>
       </c>
       <c r="G32" t="n">
-        <v>6.23</v>
+        <v>3</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I32" t="n">
         <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" t="n">
         <v>0.5</v>
@@ -1745,22 +1745,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.2323232284027141</v>
+        <v>0.2040816280420197</v>
       </c>
       <c r="D33" t="n">
-        <v>2.466984587440279e-155</v>
+        <v>2.278091019652202e-155</v>
       </c>
       <c r="E33" t="n">
-        <v>0.6380506157875061</v>
+        <v>0.5760237574577332</v>
       </c>
       <c r="F33" t="n">
-        <v>59.38718643198911</v>
+        <v>28.38548775247102</v>
       </c>
       <c r="G33" t="n">
-        <v>2.695290858725762</v>
+        <v>1.797783933518005</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="I33" t="n">
         <v>1</v>
@@ -1785,22 +1785,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.1136363592174588</v>
+        <v>0.1866666633102223</v>
       </c>
       <c r="D34" t="n">
-        <v>6.633005096247513e-156</v>
+        <v>3.607559207254879e-156</v>
       </c>
       <c r="E34" t="n">
-        <v>0.5703234076499939</v>
+        <v>0.5498295426368713</v>
       </c>
       <c r="F34" t="n">
-        <v>80.85833992094864</v>
+        <v>54.48274418604652</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5828488372093024</v>
+        <v>0.3386627906976744</v>
       </c>
       <c r="H34" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I34" t="n">
         <v>1</v>
@@ -1825,28 +1825,28 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.3888888846182967</v>
+        <v>0.2596491185930441</v>
       </c>
       <c r="D35" t="n">
-        <v>0.04262426128469369</v>
+        <v>2.663499166653614e-155</v>
       </c>
       <c r="E35" t="n">
-        <v>0.6768149137496948</v>
+        <v>0.6433360576629639</v>
       </c>
       <c r="F35" t="n">
-        <v>43.41148469387755</v>
+        <v>25.21027922077923</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4439579684763573</v>
+        <v>0.4702276707530648</v>
       </c>
       <c r="H35" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35" t="n">
         <v>0.5</v>
@@ -1865,19 +1865,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.1509433924607413</v>
+        <v>0.2325581352710926</v>
       </c>
       <c r="D36" t="n">
-        <v>2.135096876323489e-155</v>
+        <v>2.756933831335237e-155</v>
       </c>
       <c r="E36" t="n">
-        <v>0.6126742362976074</v>
+        <v>0.6119238138198853</v>
       </c>
       <c r="F36" t="n">
-        <v>43.57718211457851</v>
+        <v>38.7245371599204</v>
       </c>
       <c r="G36" t="n">
-        <v>0.5372424722662441</v>
+        <v>0.6164817749603804</v>
       </c>
       <c r="H36" t="n">
         <v>1</v>
@@ -1905,22 +1905,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.0879120854631084</v>
+        <v>0.1408450665026782</v>
       </c>
       <c r="D37" t="n">
-        <v>1.010918815868569e-156</v>
+        <v>6.236601172780498e-156</v>
       </c>
       <c r="E37" t="n">
-        <v>0.4742476642131805</v>
+        <v>0.5727556943893433</v>
       </c>
       <c r="F37" t="n">
-        <v>43.56064285714291</v>
+        <v>44.91073706591072</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2163308589607635</v>
+        <v>0.3732767762460233</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I37" t="n">
         <v>1</v>
@@ -1945,22 +1945,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.1939393904602388</v>
+        <v>0.1698113159700962</v>
       </c>
       <c r="D38" t="n">
-        <v>7.908515334892089e-80</v>
+        <v>2.042845078706887e-155</v>
       </c>
       <c r="E38" t="n">
-        <v>0.5782514810562134</v>
+        <v>0.5838626027107239</v>
       </c>
       <c r="F38" t="n">
-        <v>35.70959183673472</v>
+        <v>51.50791725105191</v>
       </c>
       <c r="G38" t="n">
-        <v>0.3531694695989651</v>
+        <v>0.7115135834411385</v>
       </c>
       <c r="H38" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="I38" t="n">
         <v>1</v>
@@ -1985,22 +1985,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.1886792410189471</v>
+        <v>0.2658959491262655</v>
       </c>
       <c r="D39" t="n">
-        <v>3.342294936873037e-155</v>
+        <v>3.823885045474596e-155</v>
       </c>
       <c r="E39" t="n">
-        <v>0.6194515228271484</v>
+        <v>0.6382231712341309</v>
       </c>
       <c r="F39" t="n">
-        <v>52.86466666666666</v>
+        <v>65.44410256410259</v>
       </c>
       <c r="G39" t="n">
-        <v>0.5545722713864307</v>
+        <v>0.616519174041298</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I39" t="n">
         <v>1</v>
@@ -2028,19 +2028,19 @@
         <v>0.09467455459542735</v>
       </c>
       <c r="D40" t="n">
-        <v>4.379194828545104e-163</v>
+        <v>1.348050035328013e-162</v>
       </c>
       <c r="E40" t="n">
-        <v>0.5775907039642334</v>
+        <v>0.634611189365387</v>
       </c>
       <c r="F40" t="n">
-        <v>34.80250000000001</v>
+        <v>37.90000000000003</v>
       </c>
       <c r="G40" t="n">
         <v>0.1629955947136564</v>
       </c>
       <c r="H40" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="I40" t="n">
         <v>1</v>
@@ -2065,22 +2065,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.1597222201398534</v>
+        <v>0.1227436807877074</v>
       </c>
       <c r="D41" t="n">
-        <v>1.116320510794845e-06</v>
+        <v>1.361609122270886e-86</v>
       </c>
       <c r="E41" t="n">
-        <v>0.5978177189826965</v>
+        <v>0.4839736819267273</v>
       </c>
       <c r="F41" t="n">
-        <v>70.22227906976744</v>
+        <v>80.29385714285716</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1694101508916324</v>
+        <v>0.1282578875171468</v>
       </c>
       <c r="H41" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I41" t="n">
         <v>1</v>
@@ -2105,22 +2105,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.2371133986693592</v>
+        <v>0.280542982130587</v>
       </c>
       <c r="D42" t="n">
-        <v>3.101623391452497e-80</v>
+        <v>1.901503664051981e-79</v>
       </c>
       <c r="E42" t="n">
-        <v>0.5809512138366699</v>
+        <v>0.5946832299232483</v>
       </c>
       <c r="F42" t="n">
-        <v>73.59125000000002</v>
+        <v>54.42682137834041</v>
       </c>
       <c r="G42" t="n">
-        <v>0.3062857142857143</v>
+        <v>0.4262857142857143</v>
       </c>
       <c r="H42" t="n">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I42" t="n">
         <v>1</v>
@@ -2145,19 +2145,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.2366863855327195</v>
+        <v>0.2364217202768224</v>
       </c>
       <c r="D43" t="n">
-        <v>7.719650024170776e-79</v>
+        <v>8.857426564543058e-79</v>
       </c>
       <c r="E43" t="n">
-        <v>0.6471298933029175</v>
+        <v>0.6302157640457153</v>
       </c>
       <c r="F43" t="n">
-        <v>60.02062368318775</v>
+        <v>51.30709756097565</v>
       </c>
       <c r="G43" t="n">
-        <v>1.196478220574606</v>
+        <v>0.9768303985171455</v>
       </c>
       <c r="H43" t="n">
         <v>1</v>
@@ -2185,19 +2185,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.2044728384652289</v>
+        <v>0.2881355890135737</v>
       </c>
       <c r="D44" t="n">
-        <v>3.196979231079171e-155</v>
+        <v>0.03411151993107182</v>
       </c>
       <c r="E44" t="n">
-        <v>0.637749969959259</v>
+        <v>0.7089216709136963</v>
       </c>
       <c r="F44" t="n">
-        <v>47.32880952380955</v>
+        <v>46.60657894736843</v>
       </c>
       <c r="G44" t="n">
-        <v>1.151549942594719</v>
+        <v>0.4626865671641791</v>
       </c>
       <c r="H44" t="n">
         <v>0.5</v>
@@ -2206,7 +2206,7 @@
         <v>1</v>
       </c>
       <c r="J44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0.5</v>
@@ -2225,19 +2225,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.05925925834266119</v>
+        <v>0.07720588131082398</v>
       </c>
       <c r="D45" t="n">
-        <v>1.59120835109714e-88</v>
+        <v>5.94608077802829e-11</v>
       </c>
       <c r="E45" t="n">
-        <v>0.5142323970794678</v>
+        <v>0.5522074699401855</v>
       </c>
       <c r="F45" t="n">
-        <v>9.884166666666715</v>
+        <v>19.18791176470592</v>
       </c>
       <c r="G45" t="n">
-        <v>0.06251713737318344</v>
+        <v>0.06114614751850837</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2246,7 +2246,7 @@
         <v>1</v>
       </c>
       <c r="J45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0.5</v>
@@ -2265,28 +2265,28 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.2370820640444933</v>
+        <v>0.01077199243149859</v>
       </c>
       <c r="D46" t="n">
-        <v>0.002810269123139334</v>
+        <v>3.457553697980959e-261</v>
       </c>
       <c r="E46" t="n">
-        <v>0.6194837093353271</v>
+        <v>0.4691262543201447</v>
       </c>
       <c r="F46" t="n">
-        <v>66.43802541544477</v>
+        <v>0.2450000000000045</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1869288285793409</v>
+        <v>0.04153973968429798</v>
       </c>
       <c r="H46" t="n">
-        <v>0.3571428571428572</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0.5</v>
@@ -2305,22 +2305,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.3032490931508947</v>
+        <v>0.2564102533301373</v>
       </c>
       <c r="D47" t="n">
-        <v>0.01710541485433277</v>
+        <v>1.225193701718157e-79</v>
       </c>
       <c r="E47" t="n">
-        <v>0.6356394290924072</v>
+        <v>0.6696693301200867</v>
       </c>
       <c r="F47" t="n">
-        <v>50.59208908473138</v>
+        <v>48.85320093457946</v>
       </c>
       <c r="G47" t="n">
-        <v>0.5053806297329614</v>
+        <v>0.2475089677162216</v>
       </c>
       <c r="H47" t="n">
-        <v>0.7142857142857143</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>1</v>
@@ -2345,22 +2345,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.1754385920467837</v>
+        <v>0.253968249181154</v>
       </c>
       <c r="D48" t="n">
-        <v>2.253911860916006e-232</v>
+        <v>0.02866415815755648</v>
       </c>
       <c r="E48" t="n">
-        <v>0.5719959735870361</v>
+        <v>0.5975328087806702</v>
       </c>
       <c r="F48" t="n">
-        <v>61.11855072463771</v>
+        <v>59.50826086956522</v>
       </c>
       <c r="G48" t="n">
-        <v>0.5717344753747323</v>
+        <v>0.7109207708779444</v>
       </c>
       <c r="H48" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="I48" t="n">
         <v>1</v>
@@ -2385,22 +2385,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.1666666636488341</v>
+        <v>0.2166666627555556</v>
       </c>
       <c r="D49" t="n">
-        <v>1.572956904044104e-156</v>
+        <v>3.127651702331096e-156</v>
       </c>
       <c r="E49" t="n">
-        <v>0.5523380041122437</v>
+        <v>0.5760723948478699</v>
       </c>
       <c r="F49" t="n">
-        <v>46.45041666666668</v>
+        <v>49.92881097560976</v>
       </c>
       <c r="G49" t="n">
-        <v>0.3545279383429673</v>
+        <v>0.4296724470134875</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I49" t="n">
         <v>1</v>
@@ -2425,22 +2425,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.2170542592296137</v>
+        <v>0.2409638504398317</v>
       </c>
       <c r="D50" t="n">
-        <v>6.289576316818292e-156</v>
+        <v>0.02555776547160182</v>
       </c>
       <c r="E50" t="n">
-        <v>0.6234159469604492</v>
+        <v>0.6044076085090637</v>
       </c>
       <c r="F50" t="n">
-        <v>50.14588235294119</v>
+        <v>65.67046253822633</v>
       </c>
       <c r="G50" t="n">
-        <v>0.5421455938697318</v>
+        <v>0.8793103448275862</v>
       </c>
       <c r="H50" t="n">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I50" t="n">
         <v>1</v>
@@ -2465,28 +2465,28 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.3184079554496177</v>
+        <v>0.2470588195287198</v>
       </c>
       <c r="D51" t="n">
-        <v>0.05417739223233171</v>
+        <v>0.03387466593822858</v>
       </c>
       <c r="E51" t="n">
-        <v>0.6321055293083191</v>
+        <v>0.6140006184577942</v>
       </c>
       <c r="F51" t="n">
-        <v>29.91173469387761</v>
+        <v>-7.628552631578941</v>
       </c>
       <c r="G51" t="n">
-        <v>0.7509986684420772</v>
+        <v>0.488681757656458</v>
       </c>
       <c r="H51" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K51" t="n">
         <v>0.5</v>
@@ -2505,22 +2505,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.1204188434093091</v>
+        <v>0.1141304301371989</v>
       </c>
       <c r="D52" t="n">
-        <v>2.208991126104747e-155</v>
+        <v>1.960277482234919e-155</v>
       </c>
       <c r="E52" t="n">
-        <v>0.5680721998214722</v>
+        <v>0.5646380186080933</v>
       </c>
       <c r="F52" t="n">
-        <v>29.49287398673548</v>
+        <v>28.9427134435204</v>
       </c>
       <c r="G52" t="n">
-        <v>0.7084844089920233</v>
+        <v>0.6671501087744742</v>
       </c>
       <c r="H52" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I52" t="n">
         <v>1</v>
@@ -2545,22 +2545,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.3015267126185101</v>
+        <v>0.33999999513448</v>
       </c>
       <c r="D53" t="n">
-        <v>0.05039588111749874</v>
+        <v>0.0548580780859727</v>
       </c>
       <c r="E53" t="n">
-        <v>0.6831568479537964</v>
+        <v>0.6811015009880066</v>
       </c>
       <c r="F53" t="n">
-        <v>14.00763867460145</v>
+        <v>33.53731375037327</v>
       </c>
       <c r="G53" t="n">
-        <v>0.8351120597652081</v>
+        <v>0.7508004268943437</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="I53" t="n">
         <v>1</v>
@@ -2585,25 +2585,25 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.09420289483721922</v>
+        <v>0.2275862028404281</v>
       </c>
       <c r="D54" t="n">
-        <v>1.514438510617027e-157</v>
+        <v>0.008098055891020405</v>
       </c>
       <c r="E54" t="n">
-        <v>0.582790732383728</v>
+        <v>0.6146737933158875</v>
       </c>
       <c r="F54" t="n">
-        <v>-34.21489795918365</v>
+        <v>64.77784624002243</v>
       </c>
       <c r="G54" t="n">
-        <v>0.3863134657836644</v>
+        <v>0.3855776306107432</v>
       </c>
       <c r="H54" t="n">
-        <v>0.7272727272727273</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="n">
         <v>1</v>
@@ -2625,25 +2625,25 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.0289855047167089</v>
+        <v>0.2352941136826769</v>
       </c>
       <c r="D55" t="n">
-        <v>1.6766496918435e-239</v>
+        <v>0.02296382257417264</v>
       </c>
       <c r="E55" t="n">
-        <v>0.5897847414016724</v>
+        <v>0.6214671730995178</v>
       </c>
       <c r="F55" t="n">
-        <v>-110.202705479452</v>
+        <v>73.01617303433002</v>
       </c>
       <c r="G55" t="n">
-        <v>0.2257438551099612</v>
+        <v>0.4146183699870634</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="n">
         <v>1</v>
@@ -2665,22 +2665,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.05797101266960729</v>
+        <v>0.2158730125238599</v>
       </c>
       <c r="D56" t="n">
-        <v>2.436510488281267e-239</v>
+        <v>0.0002327164974252225</v>
       </c>
       <c r="E56" t="n">
-        <v>0.5085023641586304</v>
+        <v>0.6060989499092102</v>
       </c>
       <c r="F56" t="n">
-        <v>25.85150000000002</v>
+        <v>53.77433333333335</v>
       </c>
       <c r="G56" t="n">
-        <v>0.1435864709636248</v>
+        <v>0.2616464582003829</v>
       </c>
       <c r="H56" t="n">
-        <v>0.04761904761904762</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="I56" t="n">
         <v>1</v>
@@ -2705,25 +2705,25 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>0.06570841748710839</v>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
+        <v>6.167611483230707e-161</v>
       </c>
       <c r="E57" t="n">
-        <v>0.4797879755496979</v>
+        <v>0.4971494376659393</v>
       </c>
       <c r="F57" t="n">
-        <v>-19.29999999999998</v>
+        <v>53.07273684210529</v>
       </c>
       <c r="G57" t="n">
-        <v>0.03962784286698828</v>
+        <v>0.09028256374913853</v>
       </c>
       <c r="H57" t="n">
         <v>0.08333333333333333</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="n">
         <v>0</v>
@@ -2745,22 +2745,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.133333328917014</v>
+        <v>0.1716417862477725</v>
       </c>
       <c r="D58" t="n">
-        <v>1.351499999716154e-155</v>
+        <v>1.800792813752474e-155</v>
       </c>
       <c r="E58" t="n">
-        <v>0.6069174408912659</v>
+        <v>0.647179126739502</v>
       </c>
       <c r="F58" t="n">
-        <v>10.16782531194298</v>
+        <v>32.14572913385828</v>
       </c>
       <c r="G58" t="n">
-        <v>0.6123110151187905</v>
+        <v>0.8174946004319654</v>
       </c>
       <c r="H58" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>1</v>
@@ -2785,22 +2785,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.166666661688889</v>
+        <v>0.2315789424201909</v>
       </c>
       <c r="D59" t="n">
-        <v>1.040001813904302e-231</v>
+        <v>6.98413654373926e-79</v>
       </c>
       <c r="E59" t="n">
-        <v>0.5920684933662415</v>
+        <v>0.6454382538795471</v>
       </c>
       <c r="F59" t="n">
-        <v>56.43576624925464</v>
+        <v>39.88116523235803</v>
       </c>
       <c r="G59" t="n">
-        <v>0.9381313131313131</v>
+        <v>1.328282828282828</v>
       </c>
       <c r="H59" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="I59" t="n">
         <v>1</v>
@@ -2825,25 +2825,25 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.2101313292756848</v>
+        <v>0.2003929250513932</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0002469441530713707</v>
+        <v>0.0001305991785712591</v>
       </c>
       <c r="E60" t="n">
-        <v>0.6133395433425903</v>
+        <v>0.6128666400909424</v>
       </c>
       <c r="F60" t="n">
-        <v>47.98084156290253</v>
+        <v>44.66708333333335</v>
       </c>
       <c r="G60" t="n">
-        <v>0.1844863731656184</v>
+        <v>0.1593291404612159</v>
       </c>
       <c r="H60" t="n">
         <v>0.3333333333333333</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="n">
         <v>0</v>
@@ -2865,19 +2865,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0.152542369174088</v>
+        <v>0.1515151480865474</v>
       </c>
       <c r="D61" t="n">
-        <v>4.483013715301635e-79</v>
+        <v>4.804076529374987e-79</v>
       </c>
       <c r="E61" t="n">
-        <v>0.5440750122070312</v>
+        <v>0.5598194003105164</v>
       </c>
       <c r="F61" t="n">
-        <v>39.07619926199266</v>
+        <v>34.06695652173914</v>
       </c>
       <c r="G61" t="n">
-        <v>2.562753036437247</v>
+        <v>2.82995951417004</v>
       </c>
       <c r="H61" t="n">
         <v>1</v>
@@ -2905,19 +2905,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.274193543544485</v>
+        <v>0.1951219463943421</v>
       </c>
       <c r="D62" t="n">
-        <v>2.73998121743416e-155</v>
+        <v>2.491661099380316e-155</v>
       </c>
       <c r="E62" t="n">
-        <v>0.6857208013534546</v>
+        <v>0.6302757859230042</v>
       </c>
       <c r="F62" t="n">
-        <v>62.23605263157896</v>
+        <v>54.51241033755275</v>
       </c>
       <c r="G62" t="n">
-        <v>0.795</v>
+        <v>0.875</v>
       </c>
       <c r="H62" t="n">
         <v>1</v>
@@ -2945,28 +2945,28 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.1761006261951663</v>
+        <v>0.1587301545600628</v>
       </c>
       <c r="D63" t="n">
-        <v>1.497935830308471e-156</v>
+        <v>1.271391333029305e-155</v>
       </c>
       <c r="E63" t="n">
-        <v>0.4800197184085846</v>
+        <v>0.6422023177146912</v>
       </c>
       <c r="F63" t="n">
-        <v>65.61371951219516</v>
+        <v>65.01678571428573</v>
       </c>
       <c r="G63" t="n">
-        <v>0.2928870292887029</v>
+        <v>0.5509065550906556</v>
       </c>
       <c r="H63" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="I63" t="n">
         <v>1</v>
       </c>
       <c r="J63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K63" t="n">
         <v>0.5</v>
@@ -2985,19 +2985,19 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.2558139488777718</v>
+        <v>0.2747252699432436</v>
       </c>
       <c r="D64" t="n">
-        <v>0.04542664606359351</v>
+        <v>9.218680170496672e-79</v>
       </c>
       <c r="E64" t="n">
-        <v>0.6924400329589844</v>
+        <v>0.6921223998069763</v>
       </c>
       <c r="F64" t="n">
-        <v>50.9991576086957</v>
+        <v>62.48247542997544</v>
       </c>
       <c r="G64" t="n">
-        <v>0.7147540983606557</v>
+        <v>0.7836065573770492</v>
       </c>
       <c r="H64" t="n">
         <v>0.75</v>
@@ -3025,19 +3025,19 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.2142857098734695</v>
+        <v>0.2380952343058706</v>
       </c>
       <c r="D65" t="n">
-        <v>0.01702609648905179</v>
+        <v>7.499381576590403e-156</v>
       </c>
       <c r="E65" t="n">
-        <v>0.6881035566329956</v>
+        <v>0.5272708535194397</v>
       </c>
       <c r="F65" t="n">
-        <v>49.75862500000002</v>
+        <v>48.99700000000001</v>
       </c>
       <c r="G65" t="n">
-        <v>0.6112224448897795</v>
+        <v>0.501002004008016</v>
       </c>
       <c r="H65" t="n">
         <v>1</v>
@@ -3065,28 +3065,28 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.3362831813203853</v>
+        <v>0.1955555510534322</v>
       </c>
       <c r="D66" t="n">
-        <v>0.04571806992251426</v>
+        <v>1.734778320503666e-155</v>
       </c>
       <c r="E66" t="n">
-        <v>0.7015346884727478</v>
+        <v>0.6627689599990845</v>
       </c>
       <c r="F66" t="n">
-        <v>70.10060743801655</v>
+        <v>61.030597758406</v>
       </c>
       <c r="G66" t="n">
-        <v>0.5508155583437893</v>
+        <v>0.6599749058971142</v>
       </c>
       <c r="H66" t="n">
         <v>0.6666666666666666</v>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K66" t="n">
         <v>0.5</v>
@@ -3105,19 +3105,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.2959641206700317</v>
+        <v>0.356164378704364</v>
       </c>
       <c r="D67" t="n">
-        <v>0.09786694245807873</v>
+        <v>0.0858814116883861</v>
       </c>
       <c r="E67" t="n">
-        <v>0.700809121131897</v>
+        <v>0.6877608299255371</v>
       </c>
       <c r="F67" t="n">
-        <v>28.29500000000002</v>
+        <v>67.82139860139861</v>
       </c>
       <c r="G67" t="n">
-        <v>0.7616438356164383</v>
+        <v>0.7123287671232876</v>
       </c>
       <c r="H67" t="n">
         <v>0.75</v>
@@ -3126,7 +3126,7 @@
         <v>1</v>
       </c>
       <c r="J67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K67" t="n">
         <v>0.5</v>
@@ -3145,22 +3145,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.1249999979309082</v>
+        <v>0.07582938256553087</v>
       </c>
       <c r="D68" t="n">
-        <v>1.580213336128044e-155</v>
+        <v>1.265298276641806e-155</v>
       </c>
       <c r="E68" t="n">
-        <v>0.4854267239570618</v>
+        <v>0.4161857962608337</v>
       </c>
       <c r="F68" t="n">
-        <v>35.33964235624126</v>
+        <v>33.47504685567503</v>
       </c>
       <c r="G68" t="n">
-        <v>6.850393700787402</v>
+        <v>10.32283464566929</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>1</v>
